--- a/B75 RNA MX1 HPRT1 Ct.xlsx
+++ b/B75 RNA MX1 HPRT1 Ct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cko11\Documents\GitHub\codesnippets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Documents\GitHub\codesnippets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D79F396-1BFA-4B72-AD41-1FCCE9951D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31CE634-4123-4B62-A640-229FB2E10178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="180" windowWidth="25440" windowHeight="15540" xr2:uid="{B85DB75A-0365-4695-83C6-95409FF3F1C1}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{B85DB75A-0365-4695-83C6-95409FF3F1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Bleed 9-15" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -106,36 +105,15 @@
   </si>
   <si>
     <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="###0.00;\-###0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,17 +145,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3ECA43BF-ACEA-48DA-9EEF-EE23814BFB38}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -492,7 +487,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE4874A-D465-4AD7-AA3C-FD84708B7B7D}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,301 +1212,289 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>30.740502383855102</v>
-      </c>
-      <c r="C2">
-        <v>27.577955011427601</v>
+      <c r="B2" s="3">
+        <v>29.5238676607412</v>
+      </c>
+      <c r="C2" s="5">
+        <v>28.0990135361813</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>31.492031864047199</v>
-      </c>
-      <c r="C3">
-        <v>28.305508183697</v>
+      <c r="B3" s="3">
+        <v>29.4887815192448</v>
+      </c>
+      <c r="C3" s="5">
+        <v>26.7855856338591</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>31.4080889346064</v>
-      </c>
-      <c r="C4">
-        <v>28.046471573528201</v>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>31.075971797787801</v>
+      </c>
+      <c r="C4" s="5">
+        <v>27.9919682405604</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>30.615873073889102</v>
-      </c>
-      <c r="C5">
-        <v>27.777057843749699</v>
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>28.821822674514401</v>
+      </c>
+      <c r="C5" s="5">
+        <v>27.443421620755899</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>29.700441543782201</v>
-      </c>
-      <c r="C6">
-        <v>28.346330987363601</v>
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>31.1333191435717</v>
+      </c>
+      <c r="C6" s="5">
+        <v>27.576682738991199</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>31.0434478142509</v>
-      </c>
-      <c r="C7">
-        <v>28.1551573398202</v>
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>31.371017457400502</v>
+      </c>
+      <c r="C7" s="5">
+        <v>28.680027486255099</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>30.016951510141901</v>
-      </c>
-      <c r="C8">
-        <v>27.912127095845499</v>
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>29.703590860252799</v>
+      </c>
+      <c r="C8" s="5">
+        <v>28.0066420030039</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>31.9874014123893</v>
-      </c>
-      <c r="C9">
-        <v>28.711500510896499</v>
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>28.8888368952476</v>
+      </c>
+      <c r="C9" s="5">
+        <v>26.929192578228399</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>31.1058906301874</v>
-      </c>
-      <c r="C10">
-        <v>28.425957806981199</v>
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>31.935034805826199</v>
+      </c>
+      <c r="C10" s="5">
+        <v>29.018752486756199</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>31.389724996235</v>
-      </c>
-      <c r="C11">
-        <v>28.389989802991199</v>
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
+        <v>28.7873149750442</v>
+      </c>
+      <c r="C11" s="5">
+        <v>27.036449496671899</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>30.219598776572202</v>
-      </c>
-      <c r="C12">
-        <v>27.4329049620621</v>
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
+        <v>30.53558776861</v>
+      </c>
+      <c r="C12" s="5">
+        <v>27.2253519774384</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>29.664162809051302</v>
-      </c>
-      <c r="C13">
-        <v>27.504779929917699</v>
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
+        <v>32.040994057968</v>
+      </c>
+      <c r="C13" s="5">
+        <v>28.376030807682898</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>29.357401851004798</v>
-      </c>
-      <c r="C14">
-        <v>27.510495472295901</v>
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3">
+        <v>29.377842333864599</v>
+      </c>
+      <c r="C14" s="5">
+        <v>27.5334047145768</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>31.107842946422799</v>
-      </c>
-      <c r="C15">
-        <v>28.6395447532751</v>
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3">
+        <v>30.784302090787602</v>
+      </c>
+      <c r="C15" s="5">
+        <v>27.4729460952408</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>31.050538186178802</v>
-      </c>
-      <c r="C16">
-        <v>28.285306725832601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>31.191501654295699</v>
-      </c>
-      <c r="C17">
-        <v>28.444593110648899</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
-        <v>31.370463072989502</v>
-      </c>
-      <c r="C18">
-        <v>28.365062783834599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B16" s="3">
+        <v>31.5041467955153</v>
+      </c>
+      <c r="C16" s="5">
+        <v>28.708204816150801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
-        <v>31.588800481403698</v>
-      </c>
-      <c r="C19">
-        <v>27.663035359243601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B17" s="3">
+        <v>29.6932116221471</v>
+      </c>
+      <c r="C17" s="5">
+        <v>27.912783502053699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
-        <v>29.601267944817099</v>
-      </c>
-      <c r="C20">
-        <v>27.7857224854055</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>30.043671845712801</v>
-      </c>
-      <c r="C21">
-        <v>27.408614069709699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>29.934994050238</v>
-      </c>
-      <c r="C22">
-        <v>28.355941706286199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>31.704184484396698</v>
-      </c>
-      <c r="C23">
-        <v>29.997802847726099</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>31.3346506368466</v>
-      </c>
-      <c r="C24">
-        <v>27.942490672579702</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>29.556524289042201</v>
-      </c>
-      <c r="C25">
-        <v>26.938424238544499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>30.480466086941099</v>
-      </c>
-      <c r="C26">
-        <v>27.847981467006701</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>29.140179379302499</v>
-      </c>
-      <c r="C27">
-        <v>27.613281163715701</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>30.314612118281101</v>
-      </c>
-      <c r="C28">
-        <v>27.824385545869799</v>
-      </c>
+      <c r="B18" s="3">
+        <v>30.054666705177301</v>
+      </c>
+      <c r="C18" s="5">
+        <v>27.483521638892601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
